--- a/public/template/sitesImport.xlsx
+++ b/public/template/sitesImport.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11670"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>填写须知：</t>
   </si>
@@ -46,7 +46,10 @@
     <t>8、场地可容纳人数：最长可为11位整数（例如：60）单位：人</t>
   </si>
   <si>
-    <t>9、详细地址：场地详细信息（例如：博学楼B座2楼212）</t>
+    <t>9、校区名称：0-32个字符（例如：本校）</t>
+  </si>
+  <si>
+    <t>10、详细地址：场地详细信息（例如：博学楼B座2楼212）</t>
   </si>
   <si>
     <t>场地名称</t>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>场地可容纳人数</t>
+  </si>
+  <si>
+    <t>校区名称</t>
   </si>
   <si>
     <t>详细地址</t>
@@ -75,9 +81,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -108,8 +114,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -117,31 +197,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,85 +228,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,13 +267,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,19 +399,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,145 +447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,41 +458,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,9 +502,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +566,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +578,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,21 +1035,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22.125" customWidth="1"/>
-    <col min="7" max="7" width="136.25" customWidth="1"/>
+    <col min="6" max="7" width="22.125" customWidth="1"/>
+    <col min="8" max="8" width="136.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1053,8 +1059,9 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1064,8 +1071,9 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1075,8 +1083,9 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1086,8 +1095,9 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1097,8 +1107,9 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1108,8 +1119,9 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1119,8 +1131,9 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="8" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1130,8 +1143,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1141,8 +1155,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="22.5" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="22.5" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1152,49 +1167,65 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="1" customFormat="1" ht="22.5" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20.25" spans="1:8">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1"/>
     <row r="13" s="1" customFormat="1"/>
     <row r="14" s="1" customFormat="1"/>
     <row r="15" s="1" customFormat="1"/>
+    <row r="16" s="1" customFormat="1"/>
   </sheetData>
-  <autoFilter ref="A1:G23">
+  <autoFilter ref="A1:H24">
     <extLst/>
   </autoFilter>
   <mergeCells count="10">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A11:H11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/public/template/sitesImport.xlsx
+++ b/public/template/sitesImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,28 @@
     <t>8、场地可容纳人数：最长可为11位整数（例如：60）单位：人</t>
   </si>
   <si>
-    <t>9、校区名称：0-32个字符（例如：本校）</t>
+    <r>
+      <t>9、校区名称：0-32个字符（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>必须与企微架构中校区名称保持一致</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>10、详细地址：场地详细信息（例如：博学楼B座2楼212）</t>
@@ -81,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,60 +136,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,30 +249,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,42 +280,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -267,13 +295,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,169 +469,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,6 +486,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,32 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -530,31 +573,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1037,8 +1065,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
